--- a/data/rice/export_th/ex2547.xlsx
+++ b/data/rice/export_th/ex2547.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\data\rice\export_th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2930CC7F-1237-401F-BC42-46FEB8229CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D66AE79-A60E-4AA2-A0FF-14E9572C494F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ราคาFOB2547" sheetId="1" r:id="rId1"/>
@@ -447,18 +447,6 @@
     <t>RWXSA1FU</t>
   </si>
   <si>
-    <t>RGWB10LU</t>
-  </si>
-  <si>
-    <t>RGWS10LU</t>
-  </si>
-  <si>
-    <t>RGWB10SU</t>
-  </si>
-  <si>
-    <t>RGWS10SU</t>
-  </si>
-  <si>
     <t>RGXBA1FU</t>
   </si>
   <si>
@@ -553,6 +541,18 @@
   </si>
   <si>
     <t>RFXSA1EO</t>
+  </si>
+  <si>
+    <t>RGXB10LU</t>
+  </si>
+  <si>
+    <t>RGXS10LU</t>
+  </si>
+  <si>
+    <t>RGXB10SU</t>
+  </si>
+  <si>
+    <t>RGXS10SU</t>
   </si>
 </sst>
 </file>
@@ -13354,8 +13354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -14236,7 +14236,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
@@ -14264,7 +14264,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -14288,7 +14288,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>41</v>
@@ -14316,7 +14316,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -14518,7 +14518,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -14546,7 +14546,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -14570,7 +14570,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -14598,7 +14598,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -14633,7 +14633,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -14661,7 +14661,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -14696,7 +14696,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -14748,7 +14748,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -14776,7 +14776,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -14800,7 +14800,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -14828,7 +14828,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -14852,7 +14852,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -14880,7 +14880,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -14904,7 +14904,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -14932,7 +14932,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -14967,7 +14967,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>74</v>
@@ -14995,7 +14995,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -15030,7 +15030,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -15058,7 +15058,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -15082,7 +15082,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>61</v>
@@ -15110,7 +15110,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -15134,7 +15134,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>62</v>
@@ -15162,7 +15162,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -15186,7 +15186,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>63</v>
@@ -15214,7 +15214,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -15238,7 +15238,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>64</v>
@@ -15266,7 +15266,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -15290,7 +15290,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -15318,7 +15318,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -15353,7 +15353,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>67</v>
@@ -15381,7 +15381,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -15480,7 +15480,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -16464,7 +16464,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
@@ -16496,7 +16496,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -16523,7 +16523,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>41</v>
@@ -16555,7 +16555,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -16815,7 +16815,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -16842,7 +16842,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -16874,7 +16874,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -16913,7 +16913,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -16945,7 +16945,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -16984,7 +16984,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -17016,7 +17016,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -17043,7 +17043,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -17075,7 +17075,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -17102,7 +17102,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -17134,7 +17134,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -17193,7 +17193,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -17220,7 +17220,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -17252,7 +17252,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -17291,7 +17291,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
@@ -17323,7 +17323,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -17362,7 +17362,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>60</v>
@@ -17394,7 +17394,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>71</v>
@@ -17421,7 +17421,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>61</v>
@@ -17453,7 +17453,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>71</v>
@@ -17480,7 +17480,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>62</v>
@@ -17512,7 +17512,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>71</v>
@@ -17539,7 +17539,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>63</v>
@@ -17571,7 +17571,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>71</v>
@@ -17598,7 +17598,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>64</v>
@@ -17630,7 +17630,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>71</v>
@@ -17657,7 +17657,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -17689,7 +17689,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -17728,7 +17728,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>67</v>
@@ -17760,7 +17760,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>71</v>
@@ -17868,7 +17868,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>38</v>
@@ -18873,7 +18873,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -18900,7 +18900,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>41</v>
@@ -18932,7 +18932,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -19160,7 +19160,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -19192,7 +19192,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -19219,7 +19219,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -19251,7 +19251,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -19290,7 +19290,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -19361,7 +19361,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -19393,7 +19393,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -19420,7 +19420,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -19452,7 +19452,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -19479,7 +19479,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -19538,7 +19538,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -19570,7 +19570,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -19595,7 +19595,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -19627,7 +19627,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -19666,7 +19666,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
@@ -19698,7 +19698,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -19737,7 +19737,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -19769,7 +19769,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -19796,7 +19796,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>61</v>
@@ -19828,7 +19828,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -19855,7 +19855,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>62</v>
@@ -19887,7 +19887,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>63</v>
@@ -19946,7 +19946,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -19973,7 +19973,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>64</v>
@@ -20005,7 +20005,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -20032,7 +20032,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -20064,7 +20064,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -20103,7 +20103,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>67</v>
@@ -20135,7 +20135,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -20244,8 +20244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -21208,7 +21208,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
@@ -21240,7 +21240,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>75</v>
@@ -21267,7 +21267,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="47" t="s">
         <v>41</v>
@@ -21299,7 +21299,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>76</v>
@@ -21527,7 +21527,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -21559,7 +21559,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -21586,7 +21586,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -21615,7 +21615,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -21652,7 +21652,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -21684,7 +21684,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -21723,7 +21723,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -21755,7 +21755,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -21782,7 +21782,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -21814,7 +21814,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -21841,7 +21841,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -21873,7 +21873,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -21900,7 +21900,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -21929,7 +21929,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -21956,7 +21956,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -21988,7 +21988,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -22027,7 +22027,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
@@ -22059,7 +22059,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -22098,7 +22098,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -22130,7 +22130,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -22157,7 +22157,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>61</v>
@@ -22189,7 +22189,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -22216,7 +22216,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>62</v>
@@ -22248,7 +22248,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -22275,7 +22275,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>63</v>
@@ -22307,7 +22307,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -22334,7 +22334,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>64</v>
@@ -22366,7 +22366,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -22425,7 +22425,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -22464,7 +22464,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>67</v>
@@ -22496,7 +22496,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -22602,8 +22602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -23482,7 +23482,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>38</v>
@@ -23511,7 +23511,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -23536,7 +23536,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>41</v>
@@ -23565,7 +23565,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -23776,7 +23776,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>47</v>
@@ -23805,7 +23805,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -23830,7 +23830,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>48</v>
@@ -23859,7 +23859,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -23896,7 +23896,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>50</v>
@@ -23925,7 +23925,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -23962,7 +23962,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -23991,7 +23991,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -24016,7 +24016,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>53</v>
@@ -24045,7 +24045,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -24070,7 +24070,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>54</v>
@@ -24099,7 +24099,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -24124,7 +24124,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -24153,7 +24153,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -24178,7 +24178,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -24207,7 +24207,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -24244,7 +24244,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>58</v>
@@ -24273,7 +24273,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -24310,7 +24310,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>60</v>
@@ -24339,7 +24339,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -24364,7 +24364,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>61</v>
@@ -24393,7 +24393,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -24418,7 +24418,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>62</v>
@@ -24447,7 +24447,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -24472,7 +24472,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>63</v>
@@ -24501,7 +24501,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -24526,7 +24526,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>64</v>
@@ -24555,7 +24555,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -24580,7 +24580,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>65</v>
@@ -24609,7 +24609,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -24646,7 +24646,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>67</v>
@@ -24675,7 +24675,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -24777,8 +24777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -25656,7 +25656,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>43</v>
@@ -25685,7 +25685,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -25710,7 +25710,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>41</v>
@@ -25739,7 +25739,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -25950,7 +25950,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -25979,7 +25979,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -26004,7 +26004,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -26033,7 +26033,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -26070,7 +26070,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -26099,7 +26099,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -26136,7 +26136,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -26165,7 +26165,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -26190,7 +26190,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -26219,7 +26219,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -26244,7 +26244,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -26273,7 +26273,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -26298,7 +26298,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -26327,7 +26327,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -26352,7 +26352,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -26381,7 +26381,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -26418,7 +26418,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
@@ -26447,7 +26447,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -26484,7 +26484,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -26513,7 +26513,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -26538,7 +26538,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>61</v>
@@ -26567,7 +26567,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -26592,7 +26592,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>62</v>
@@ -26621,7 +26621,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -26646,7 +26646,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>63</v>
@@ -26675,7 +26675,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -26700,7 +26700,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>64</v>
@@ -26729,7 +26729,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -26754,7 +26754,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -26783,7 +26783,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -26820,7 +26820,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>67</v>
@@ -26849,7 +26849,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -26952,7 +26952,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -27921,7 +27921,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
@@ -27953,7 +27953,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -27980,7 +27980,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>41</v>
@@ -28012,7 +28012,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -28246,7 +28246,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -28278,7 +28278,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -28305,7 +28305,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -28337,7 +28337,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -28379,7 +28379,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -28411,7 +28411,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -28453,7 +28453,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -28485,7 +28485,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -28512,7 +28512,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -28544,7 +28544,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -28571,7 +28571,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -28603,7 +28603,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -28630,7 +28630,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -28662,7 +28662,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -28689,7 +28689,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -28721,7 +28721,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -28763,7 +28763,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
@@ -28795,7 +28795,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -28837,7 +28837,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -28869,7 +28869,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -28896,7 +28896,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>61</v>
@@ -28928,7 +28928,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -28955,7 +28955,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>62</v>
@@ -28987,7 +28987,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -29014,7 +29014,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>63</v>
@@ -29046,7 +29046,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -29073,7 +29073,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>64</v>
@@ -29105,7 +29105,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -29132,7 +29132,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -29164,7 +29164,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -29206,7 +29206,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>67</v>
@@ -29238,7 +29238,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -29350,8 +29350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -30205,7 +30205,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
@@ -30233,7 +30233,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -30258,7 +30258,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>41</v>
@@ -30286,7 +30286,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -30494,7 +30494,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -30522,7 +30522,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -30547,7 +30547,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -30575,7 +30575,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -30601,7 +30601,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -30629,7 +30629,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -30666,7 +30666,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -30694,7 +30694,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -30719,7 +30719,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -30747,7 +30747,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -30772,7 +30772,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -30800,7 +30800,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -30825,7 +30825,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -30853,7 +30853,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -30878,7 +30878,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -30906,7 +30906,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -30943,7 +30943,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
@@ -30971,7 +30971,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -31008,7 +31008,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -31036,7 +31036,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -31061,7 +31061,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>61</v>
@@ -31089,7 +31089,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -31114,7 +31114,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>62</v>
@@ -31142,7 +31142,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -31167,7 +31167,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>63</v>
@@ -31195,7 +31195,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -31220,7 +31220,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>64</v>
@@ -31248,7 +31248,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -31273,7 +31273,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -31301,7 +31301,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -31338,7 +31338,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>67</v>
@@ -31366,7 +31366,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -31467,8 +31467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -32415,7 +32415,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
@@ -32447,7 +32447,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -32474,7 +32474,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>41</v>
@@ -32506,7 +32506,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -32740,7 +32740,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -32772,7 +32772,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -32799,7 +32799,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -32828,7 +32828,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -32860,7 +32860,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -32892,7 +32892,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -32934,7 +32934,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -32966,7 +32966,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -32993,7 +32993,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -33025,7 +33025,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -33052,7 +33052,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -33084,7 +33084,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -33111,7 +33111,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -33140,7 +33140,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -33165,7 +33165,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -33197,7 +33197,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -33239,7 +33239,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
@@ -33271,7 +33271,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -33313,7 +33313,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -33345,7 +33345,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -33372,7 +33372,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>61</v>
@@ -33404,7 +33404,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -33431,7 +33431,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>62</v>
@@ -33463,7 +33463,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -33490,7 +33490,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>63</v>
@@ -33522,7 +33522,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -33549,7 +33549,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>64</v>
@@ -33581,7 +33581,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -33608,7 +33608,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -33637,7 +33637,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -33679,7 +33679,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>67</v>
@@ -33711,7 +33711,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -33824,7 +33824,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -34770,7 +34770,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
@@ -34802,7 +34802,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -34829,7 +34829,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>41</v>
@@ -34861,7 +34861,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -35089,7 +35089,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -35121,7 +35121,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -35148,7 +35148,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -35180,7 +35180,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -35213,7 +35213,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -35245,7 +35245,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -35284,7 +35284,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -35316,7 +35316,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -35341,7 +35341,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -35373,7 +35373,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -35400,7 +35400,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -35432,7 +35432,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -35459,7 +35459,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -35488,7 +35488,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -35515,7 +35515,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -35547,7 +35547,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -35586,7 +35586,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
@@ -35618,7 +35618,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -35655,7 +35655,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -35687,7 +35687,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -35714,7 +35714,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>61</v>
@@ -35746,7 +35746,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -35773,7 +35773,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>62</v>
@@ -35805,7 +35805,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -35832,7 +35832,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>63</v>
@@ -35864,7 +35864,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -35891,7 +35891,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>64</v>
@@ -35923,7 +35923,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -35950,7 +35950,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -35982,7 +35982,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -36021,7 +36021,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>67</v>
@@ -36053,7 +36053,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -36161,7 +36161,7 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -37049,7 +37049,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
@@ -37078,7 +37078,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -37103,7 +37103,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>41</v>
@@ -37132,7 +37132,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -37343,7 +37343,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -37372,7 +37372,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -37397,7 +37397,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -37426,7 +37426,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -37460,7 +37460,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -37489,7 +37489,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -37526,7 +37526,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -37555,7 +37555,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -37578,7 +37578,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -37607,7 +37607,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -37632,7 +37632,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -37661,7 +37661,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -37686,7 +37686,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -37715,7 +37715,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -37740,7 +37740,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -37769,7 +37769,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -37806,7 +37806,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
@@ -37835,7 +37835,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -37870,7 +37870,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -37899,7 +37899,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -37924,7 +37924,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>61</v>
@@ -37953,7 +37953,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -37978,7 +37978,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>62</v>
@@ -38007,7 +38007,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -38032,7 +38032,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>63</v>
@@ -38061,7 +38061,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -38086,7 +38086,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>64</v>
@@ -38115,7 +38115,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -38140,7 +38140,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -38169,7 +38169,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -38206,7 +38206,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>67</v>
@@ -38241,7 +38241,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -38342,7 +38342,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -39332,7 +39332,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>38</v>
@@ -39364,7 +39364,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>71</v>
@@ -39391,7 +39391,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>41</v>
@@ -39423,7 +39423,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>71</v>
@@ -39651,7 +39651,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>47</v>
@@ -39683,7 +39683,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>71</v>
@@ -39710,7 +39710,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>48</v>
@@ -39742,7 +39742,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -39781,7 +39781,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>50</v>
@@ -39813,7 +39813,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -39852,7 +39852,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -39884,7 +39884,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>71</v>
@@ -39911,7 +39911,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>53</v>
@@ -39943,7 +39943,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>71</v>
@@ -39970,7 +39970,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
@@ -40002,7 +40002,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>71</v>
@@ -40029,7 +40029,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>55</v>
@@ -40061,7 +40061,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>71</v>
@@ -40088,7 +40088,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>56</v>
@@ -40120,7 +40120,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>71</v>
@@ -40159,7 +40159,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>58</v>
@@ -40191,7 +40191,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>71</v>
@@ -40230,7 +40230,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>60</v>
@@ -40262,7 +40262,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>71</v>
@@ -40289,7 +40289,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>61</v>
@@ -40321,7 +40321,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>71</v>
@@ -40348,7 +40348,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>62</v>
@@ -40380,7 +40380,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>71</v>
@@ -40407,7 +40407,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>63</v>
@@ -40439,7 +40439,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>71</v>
@@ -40466,7 +40466,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>64</v>
@@ -40498,7 +40498,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>71</v>
@@ -40525,7 +40525,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>65</v>
@@ -40557,7 +40557,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>71</v>
@@ -40596,7 +40596,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>67</v>
@@ -40628,7 +40628,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>

--- a/data/rice/export_th/ex2547.xlsx
+++ b/data/rice/export_th/ex2547.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\data\rice\export_th\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\price_transmission\data\rice\export_th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D66AE79-A60E-4AA2-A0FF-14E9572C494F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ราคาFOB2547" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ราคาFOB2547!$A$1:$W$86</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -558,12 +557,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -786,7 +785,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -833,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -870,7 +869,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -881,7 +880,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -894,22 +893,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,55 +917,55 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,23 +1063,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1116,23 +1098,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1308,7 +1273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z406"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1476,7 +1441,7 @@
         <v>41.302879999999995</v>
       </c>
       <c r="J5" s="54">
-        <f>sep!G4</f>
+        <f>sep!H4</f>
         <v>41.266550000000002</v>
       </c>
       <c r="K5" s="56">
@@ -1551,7 +1516,7 @@
         <v>18197.709980000003</v>
       </c>
       <c r="J7" s="48">
-        <f>sep!$G6</f>
+        <f>sep!$H6</f>
         <v>17105.112000000001</v>
       </c>
       <c r="K7" s="65">
@@ -1620,7 +1585,7 @@
         <v>440.6</v>
       </c>
       <c r="J8" s="48">
-        <f>sep!$G7</f>
+        <f>sep!$H7</f>
         <v>414.5</v>
       </c>
       <c r="K8" s="65">
@@ -1749,7 +1714,7 @@
         <v>17702.075420000001</v>
       </c>
       <c r="J11" s="48">
-        <f>sep!$G10</f>
+        <f>sep!$H10</f>
         <v>16609.913399999998</v>
       </c>
       <c r="K11" s="65">
@@ -1818,7 +1783,7 @@
         <v>428.6</v>
       </c>
       <c r="J12" s="48">
-        <f>sep!$G11</f>
+        <f>sep!$H11</f>
         <v>402.5</v>
       </c>
       <c r="K12" s="65">
@@ -1947,7 +1912,7 @@
         <v>10904.000320000001</v>
       </c>
       <c r="J15" s="48">
-        <f>sep!$G14</f>
+        <f>sep!$H14</f>
         <v>10770.810450000001</v>
       </c>
       <c r="K15" s="65">
@@ -2016,7 +1981,7 @@
         <v>264</v>
       </c>
       <c r="J16" s="48">
-        <f>sep!$G15</f>
+        <f>sep!$H15</f>
         <v>261</v>
       </c>
       <c r="K16" s="65">
@@ -2085,7 +2050,7 @@
         <v>10020.112299999999</v>
       </c>
       <c r="J17" s="48">
-        <f>sep!$G16</f>
+        <f>sep!$H16</f>
         <v>9873.2999999999993</v>
       </c>
       <c r="K17" s="65">
@@ -2154,7 +2119,7 @@
         <v>242.6</v>
       </c>
       <c r="J18" s="48">
-        <f>sep!$G17</f>
+        <f>sep!$H17</f>
         <v>239.25</v>
       </c>
       <c r="K18" s="65">
@@ -2343,7 +2308,7 @@
         <v>9821.83734</v>
       </c>
       <c r="J23" s="48">
-        <f>sep!$G22</f>
+        <f>sep!$H22</f>
         <v>9677.2483500000017</v>
       </c>
       <c r="K23" s="65">
@@ -2412,7 +2377,7 @@
         <v>237.8</v>
       </c>
       <c r="J24" s="48">
-        <f>sep!$G23</f>
+        <f>sep!$H23</f>
         <v>234.5</v>
       </c>
       <c r="K24" s="65">
@@ -2481,7 +2446,7 @@
         <v>9664.9139200000009</v>
       </c>
       <c r="J25" s="48">
-        <f>sep!$G24</f>
+        <f>sep!$H24</f>
         <v>9563.7268499999991</v>
       </c>
       <c r="K25" s="65">
@@ -2550,7 +2515,7 @@
         <v>234</v>
       </c>
       <c r="J26" s="48">
-        <f>sep!$G25</f>
+        <f>sep!$H25</f>
         <v>231.75</v>
       </c>
       <c r="K26" s="65">
@@ -2619,7 +2584,7 @@
         <v>9590.571780000002</v>
       </c>
       <c r="J27" s="48">
-        <f>sep!$G26</f>
+        <f>sep!$H26</f>
         <v>9460.5650499999992</v>
       </c>
       <c r="K27" s="65">
@@ -2688,7 +2653,7 @@
         <v>232.2</v>
       </c>
       <c r="J28" s="48">
-        <f>sep!$G27</f>
+        <f>sep!$H27</f>
         <v>229.25</v>
       </c>
       <c r="K28" s="65">
@@ -2817,7 +2782,7 @@
         <v>9326.2027800000014</v>
       </c>
       <c r="J31" s="48">
-        <f>sep!$G30</f>
+        <f>sep!$H30</f>
         <v>9171.5834000000013</v>
       </c>
       <c r="K31" s="65">
@@ -2886,7 +2851,7 @@
         <v>225.8</v>
       </c>
       <c r="J32" s="48">
-        <f>sep!$G31</f>
+        <f>sep!$H31</f>
         <v>222.25</v>
       </c>
       <c r="K32" s="65">
@@ -3165,7 +3130,7 @@
         <v>11886.681619999999</v>
       </c>
       <c r="J38" s="48">
-        <f>sep!$G37</f>
+        <f>sep!$H37</f>
         <v>11245.43275</v>
       </c>
       <c r="K38" s="65">
@@ -3234,7 +3199,7 @@
         <v>287.8</v>
       </c>
       <c r="J39" s="48">
-        <f>sep!$G38</f>
+        <f>sep!$H38</f>
         <v>272.5</v>
       </c>
       <c r="K39" s="65">
@@ -3303,7 +3268,7 @@
         <v>10143.4692</v>
       </c>
       <c r="J40" s="48">
-        <f>sep!$G39</f>
+        <f>sep!$H39</f>
         <v>9130.3814999999995</v>
       </c>
       <c r="K40" s="65">
@@ -3372,7 +3337,7 @@
         <v>245.6</v>
       </c>
       <c r="J41" s="48">
-        <f>sep!$G40</f>
+        <f>sep!$H40</f>
         <v>221.25</v>
       </c>
       <c r="K41" s="65">
@@ -3469,7 +3434,7 @@
         <v>9086.6977799999986</v>
       </c>
       <c r="J43" s="48">
-        <f>sep!$G42</f>
+        <f>sep!$H42</f>
         <v>8954.9000999999989</v>
       </c>
       <c r="K43" s="65">
@@ -3538,7 +3503,7 @@
         <v>220</v>
       </c>
       <c r="J44" s="48">
-        <f>sep!$G43</f>
+        <f>sep!$H43</f>
         <v>217</v>
       </c>
       <c r="K44" s="65">
@@ -3607,7 +3572,7 @@
         <v>8690.1965199999995</v>
       </c>
       <c r="J45" s="48">
-        <f>sep!$G44</f>
+        <f>sep!$H44</f>
         <v>8593.6897000000008</v>
       </c>
       <c r="K45" s="65">
@@ -3676,7 +3641,7 @@
         <v>210.4</v>
       </c>
       <c r="J46" s="48">
-        <f>sep!$G45</f>
+        <f>sep!$H45</f>
         <v>208.25</v>
       </c>
       <c r="K46" s="65">
@@ -3745,7 +3710,7 @@
         <v>8591.06322</v>
       </c>
       <c r="J47" s="48">
-        <f>sep!$G46</f>
+        <f>sep!$H46</f>
         <v>8469.89005</v>
       </c>
       <c r="K47" s="65">
@@ -3814,7 +3779,7 @@
         <v>208</v>
       </c>
       <c r="J48" s="48">
-        <f>sep!$G47</f>
+        <f>sep!$H47</f>
         <v>205.25</v>
       </c>
       <c r="K48" s="65">
@@ -3913,7 +3878,7 @@
         <v>13233.262559999999</v>
       </c>
       <c r="J50" s="48">
-        <f>sep!$G49</f>
+        <f>sep!$H49</f>
         <v>12204.89365</v>
       </c>
       <c r="K50" s="65">
@@ -3982,7 +3947,7 @@
         <v>320.39999999999998</v>
       </c>
       <c r="J51" s="48">
-        <f>sep!$G50</f>
+        <f>sep!$H50</f>
         <v>295.75</v>
       </c>
       <c r="K51" s="65">
@@ -4141,7 +4106,7 @@
         <v>9987.1375200000002</v>
       </c>
       <c r="J55" s="48">
-        <f>sep!$G54</f>
+        <f>sep!$H54</f>
         <v>9759.6052</v>
       </c>
       <c r="K55" s="65">
@@ -4210,7 +4175,7 @@
         <v>241.8</v>
       </c>
       <c r="J56" s="48">
-        <f>sep!$G55</f>
+        <f>sep!$H55</f>
         <v>236.5</v>
       </c>
       <c r="K56" s="65">
@@ -4309,7 +4274,7 @@
         <v>9549.4065200000005</v>
       </c>
       <c r="J58" s="48">
-        <f>sep!$G57</f>
+        <f>sep!$H57</f>
         <v>9728.6712000000007</v>
       </c>
       <c r="K58" s="65">
@@ -4378,7 +4343,7 @@
         <v>231.2</v>
       </c>
       <c r="J59" s="48">
-        <f>sep!$G58</f>
+        <f>sep!$H58</f>
         <v>235.75</v>
       </c>
       <c r="K59" s="65">
@@ -4447,7 +4412,7 @@
         <v>9466.6876200000006</v>
       </c>
       <c r="J60" s="48">
-        <f>sep!$G59</f>
+        <f>sep!$H59</f>
         <v>9460.5126499999988</v>
       </c>
       <c r="K60" s="65">
@@ -4516,7 +4481,7 @@
         <v>229.2</v>
       </c>
       <c r="J61" s="48">
-        <f>sep!$G60</f>
+        <f>sep!$H60</f>
         <v>229.25</v>
       </c>
       <c r="K61" s="65">
@@ -4585,7 +4550,7 @@
         <v>9268.4368399999985</v>
       </c>
       <c r="J62" s="48">
-        <f>sep!$G61</f>
+        <f>sep!$H61</f>
         <v>9295.2721999999994</v>
       </c>
       <c r="K62" s="65">
@@ -4654,7 +4619,7 @@
         <v>224.4</v>
       </c>
       <c r="J63" s="48">
-        <f>sep!$G62</f>
+        <f>sep!$H62</f>
         <v>225.25</v>
       </c>
       <c r="K63" s="65">
@@ -4783,7 +4748,7 @@
         <v>9177.5674600000002</v>
       </c>
       <c r="J66" s="48">
-        <f>sep!$G65</f>
+        <f>sep!$H65</f>
         <v>9233.4725999999991</v>
       </c>
       <c r="K66" s="65">
@@ -4852,7 +4817,7 @@
         <v>222.2</v>
       </c>
       <c r="J67" s="48">
-        <f>sep!$G66</f>
+        <f>sep!$H66</f>
         <v>223.75</v>
       </c>
       <c r="K67" s="65">
@@ -4951,7 +4916,7 @@
         <v>8194.5619600000009</v>
       </c>
       <c r="J69" s="48">
-        <f>sep!$G68</f>
+        <f>sep!$H68</f>
         <v>8139.8239999999996</v>
       </c>
       <c r="K69" s="65">
@@ -5020,7 +4985,7 @@
         <v>198.4</v>
       </c>
       <c r="J70" s="48">
-        <f>sep!$G69</f>
+        <f>sep!$H69</f>
         <v>197.25</v>
       </c>
       <c r="K70" s="65">
@@ -5119,7 +5084,7 @@
         <v>10582.003000000001</v>
       </c>
       <c r="J72" s="48">
-        <f>sep!$G71</f>
+        <f>sep!$H71</f>
         <v>10451.047050000001</v>
       </c>
       <c r="K72" s="65">
@@ -5188,7 +5153,7 @@
         <v>256.2</v>
       </c>
       <c r="J73" s="48">
-        <f>sep!$G72</f>
+        <f>sep!$H72</f>
         <v>253.25</v>
       </c>
       <c r="K73" s="65">
@@ -5257,7 +5222,7 @@
         <v>10383.776699999999</v>
       </c>
       <c r="J74" s="48">
-        <f>sep!$G73</f>
+        <f>sep!$H73</f>
         <v>10296.2125</v>
       </c>
       <c r="K74" s="65">
@@ -5326,7 +5291,7 @@
         <v>251.4</v>
       </c>
       <c r="J75" s="48">
-        <f>sep!$G74</f>
+        <f>sep!$H74</f>
         <v>249.5</v>
       </c>
       <c r="K75" s="65">
@@ -5392,7 +5357,7 @@
         <v>10152.511139999999</v>
       </c>
       <c r="J76" s="48">
-        <f>sep!$G75</f>
+        <f>sep!$H75</f>
         <v>10151.728650000001</v>
       </c>
       <c r="K76" s="65">
@@ -5458,7 +5423,7 @@
         <v>245.8</v>
       </c>
       <c r="J77" s="48">
-        <f>sep!$G76</f>
+        <f>sep!$H76</f>
         <v>246</v>
       </c>
       <c r="K77" s="65">
@@ -5527,7 +5492,7 @@
         <v>10078.128999999999</v>
       </c>
       <c r="J78" s="48">
-        <f>sep!$G77</f>
+        <f>sep!$H77</f>
         <v>10048.563750000001</v>
       </c>
       <c r="K78" s="65">
@@ -5596,7 +5561,7 @@
         <v>244</v>
       </c>
       <c r="J79" s="48">
-        <f>sep!$G78</f>
+        <f>sep!$H78</f>
         <v>243.5</v>
       </c>
       <c r="K79" s="65">
@@ -5665,7 +5630,7 @@
         <v>9879.8540400000002</v>
       </c>
       <c r="J80" s="48">
-        <f>sep!$G79</f>
+        <f>sep!$H79</f>
         <v>9924.6886000000013</v>
       </c>
       <c r="K80" s="65">
@@ -5734,7 +5699,7 @@
         <v>239.2</v>
       </c>
       <c r="J81" s="48">
-        <f>sep!$G80</f>
+        <f>sep!$H80</f>
         <v>240.5</v>
       </c>
       <c r="K81" s="65">
@@ -5893,7 +5858,7 @@
         <v>8483.6821200000013</v>
       </c>
       <c r="J85" s="48">
-        <f>sep!$G84</f>
+        <f>sep!$H84</f>
         <v>8305.1539000000012</v>
       </c>
       <c r="K85" s="65">
@@ -5962,7 +5927,7 @@
         <v>205.4</v>
       </c>
       <c r="J86" s="77">
-        <f>sep!$G85</f>
+        <f>sep!$H85</f>
         <v>201.25</v>
       </c>
       <c r="K86" s="78">
@@ -13351,21 +13316,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.75">
       <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
@@ -13374,8 +13339,9 @@
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
       <c r="B2" s="15" t="s">
         <v>69</v>
       </c>
@@ -13383,9 +13349,10 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
@@ -13401,16 +13368,17 @@
       <c r="F3" s="19">
         <v>4</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
@@ -13426,17 +13394,18 @@
       <c r="F4" s="20">
         <v>41.309800000000003</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="20"/>
+      <c r="H4" s="41">
         <f>AVERAGE(C4:F4)</f>
         <v>41.266550000000002</v>
       </c>
-      <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
       <c r="B5" s="21" t="s">
         <v>19</v>
       </c>
@@ -13444,9 +13413,10 @@
       <c r="D5" s="35"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="G5" s="35"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A6" s="40" t="s">
         <v>90</v>
       </c>
@@ -13469,12 +13439,13 @@
         <f>F$4*F7</f>
         <v>16854.398400000002</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27"/>
+      <c r="H6" s="30">
         <f>AVERAGE(C6:F6)</f>
         <v>17105.112000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A7" s="40" t="s">
         <v>91</v>
       </c>
@@ -13493,12 +13464,13 @@
       <c r="F7" s="32">
         <v>408</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="32"/>
+      <c r="H7" s="30">
         <f>AVERAGE(C7:F7)</f>
         <v>414.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A8" s="40" t="s">
         <v>92</v>
       </c>
@@ -13521,12 +13493,13 @@
         <f>F$4*F9</f>
         <v>0</v>
       </c>
-      <c r="G8" s="30">
-        <f t="shared" ref="G8:G20" si="0">AVERAGE(C8:F8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="G8" s="27"/>
+      <c r="H8" s="30">
+        <f t="shared" ref="H8:H20" si="0">AVERAGE(C8:F8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A9" s="40" t="s">
         <v>93</v>
       </c>
@@ -13545,12 +13518,13 @@
       <c r="F9" s="32">
         <v>0</v>
       </c>
-      <c r="G9" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="G9" s="32"/>
+      <c r="H9" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A10" s="40" t="s">
         <v>94</v>
       </c>
@@ -13573,12 +13547,13 @@
         <f>F$4*F11</f>
         <v>16358.680800000002</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="27"/>
+      <c r="H10" s="30">
         <f>AVERAGE(C10:F10)</f>
         <v>16609.913399999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A11" s="40" t="s">
         <v>95</v>
       </c>
@@ -13597,12 +13572,13 @@
       <c r="F11" s="32">
         <v>396</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="32"/>
+      <c r="H11" s="30">
         <f>AVERAGE(C11:F11)</f>
         <v>402.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A12" s="40" t="s">
         <v>96</v>
       </c>
@@ -13625,12 +13601,13 @@
         <f>F$4*F13</f>
         <v>0</v>
       </c>
-      <c r="G12" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="G12" s="27"/>
+      <c r="H12" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A13" s="40" t="s">
         <v>97</v>
       </c>
@@ -13649,12 +13626,13 @@
       <c r="F13" s="32">
         <v>0</v>
       </c>
-      <c r="G13" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="G13" s="32"/>
+      <c r="H13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A14" s="40" t="s">
         <v>98</v>
       </c>
@@ -13677,12 +13655,13 @@
         <f>F$4*F15</f>
         <v>10781.857800000002</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="27"/>
+      <c r="H14" s="30">
         <f>AVERAGE(C14:F14)</f>
         <v>10770.810450000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A15" s="40" t="s">
         <v>99</v>
       </c>
@@ -13701,12 +13680,13 @@
       <c r="F15" s="38">
         <v>261</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="38"/>
+      <c r="H15" s="30">
         <f>AVERAGE(C15:F15)</f>
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A16" s="40" t="s">
         <v>100</v>
       </c>
@@ -13729,12 +13709,13 @@
         <f>F$4*F17</f>
         <v>9873.0421999999999</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="27"/>
+      <c r="H16" s="30">
         <f>AVERAGE(C16:F16)</f>
         <v>9873.2999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A17" s="40" t="s">
         <v>101</v>
       </c>
@@ -13753,12 +13734,13 @@
       <c r="F17" s="32">
         <v>239</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="32"/>
+      <c r="H17" s="30">
         <f>AVERAGE(C17:F17)</f>
         <v>239.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A18" s="40" t="s">
         <v>102</v>
       </c>
@@ -13781,12 +13763,13 @@
         <f>F$4*F19</f>
         <v>0</v>
       </c>
-      <c r="G18" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G18" s="27"/>
+      <c r="H18" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A19" s="40" t="s">
         <v>103</v>
       </c>
@@ -13805,12 +13788,13 @@
       <c r="F19" s="38">
         <v>0</v>
       </c>
-      <c r="G19" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G19" s="38"/>
+      <c r="H19" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A20" s="40" t="s">
         <v>104</v>
       </c>
@@ -13833,12 +13817,13 @@
         <f>F$4*F21</f>
         <v>0</v>
       </c>
-      <c r="G20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G20" s="27"/>
+      <c r="H20" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A21" s="40" t="s">
         <v>105</v>
       </c>
@@ -13857,9 +13842,10 @@
       <c r="F21" s="32">
         <v>0</v>
       </c>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G21" s="32"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A22" s="40" t="s">
         <v>106</v>
       </c>
@@ -13882,12 +13868,13 @@
         <f>F$4*F23</f>
         <v>9666.4932000000008</v>
       </c>
-      <c r="G22" s="30">
-        <f t="shared" ref="G22:G35" si="1">AVERAGE(C22:F22)</f>
+      <c r="G22" s="27"/>
+      <c r="H22" s="30">
+        <f t="shared" ref="H22:H35" si="1">AVERAGE(C22:F22)</f>
         <v>9677.2483500000017</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A23" s="40" t="s">
         <v>107</v>
       </c>
@@ -13906,12 +13893,13 @@
       <c r="F23" s="27">
         <v>234</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="27"/>
+      <c r="H23" s="30">
         <f t="shared" si="1"/>
         <v>234.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A24" s="40" t="s">
         <v>108</v>
       </c>
@@ -13934,12 +13922,13 @@
         <f>F$4*F25</f>
         <v>9583.8736000000008</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="27"/>
+      <c r="H24" s="30">
         <f t="shared" si="1"/>
         <v>9563.7268499999991</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A25" s="40" t="s">
         <v>109</v>
       </c>
@@ -13958,12 +13947,13 @@
       <c r="F25" s="32">
         <v>232</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="32"/>
+      <c r="H25" s="30">
         <f t="shared" si="1"/>
         <v>231.75</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A26" s="40" t="s">
         <v>110</v>
       </c>
@@ -13986,12 +13976,13 @@
         <f>F$4*F27</f>
         <v>9377.3245999999999</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="27"/>
+      <c r="H26" s="30">
         <f t="shared" si="1"/>
         <v>9460.5650499999992</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A27" s="40" t="s">
         <v>111</v>
       </c>
@@ -14010,12 +14001,13 @@
       <c r="F27" s="38">
         <v>227</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="38"/>
+      <c r="H27" s="30">
         <f t="shared" si="1"/>
         <v>229.25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A28" s="40" t="s">
         <v>112</v>
       </c>
@@ -14038,12 +14030,13 @@
         <f>F$4*F29</f>
         <v>0</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="27"/>
+      <c r="H28" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A29" s="40" t="s">
         <v>113</v>
       </c>
@@ -14062,12 +14055,13 @@
       <c r="F29" s="27">
         <v>0</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="27"/>
+      <c r="H29" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A30" s="40" t="s">
         <v>114</v>
       </c>
@@ -14090,12 +14084,13 @@
         <f>F$4*F31</f>
         <v>8964.2266</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="27"/>
+      <c r="H30" s="30">
         <f t="shared" si="1"/>
         <v>9171.5834000000013</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A31" s="40" t="s">
         <v>115</v>
       </c>
@@ -14114,12 +14109,13 @@
       <c r="F31" s="27">
         <v>217</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="27"/>
+      <c r="H31" s="30">
         <f t="shared" si="1"/>
         <v>222.25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A32" s="40" t="s">
         <v>116</v>
       </c>
@@ -14142,12 +14138,13 @@
         <f>F$4*F33</f>
         <v>0</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="27"/>
+      <c r="H32" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A33" s="40" t="s">
         <v>117</v>
       </c>
@@ -14166,12 +14163,13 @@
       <c r="F33" s="27">
         <v>0</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="27"/>
+      <c r="H33" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A34" s="40" t="s">
         <v>118</v>
       </c>
@@ -14194,12 +14192,13 @@
         <f>F$4*F35</f>
         <v>0</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="27"/>
+      <c r="H34" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A35" s="40" t="s">
         <v>119</v>
       </c>
@@ -14218,12 +14217,13 @@
       <c r="F35" s="38">
         <v>0</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="38"/>
+      <c r="H35" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A36" s="40"/>
       <c r="B36" s="21" t="s">
         <v>37</v>
@@ -14232,9 +14232,10 @@
       <c r="D36" s="35"/>
       <c r="E36" s="34"/>
       <c r="F36" s="35"/>
-      <c r="G36" s="30"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G36" s="35"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="40" t="s">
         <v>154</v>
       </c>
@@ -14257,12 +14258,13 @@
         <f>F$4*F38</f>
         <v>11071.026400000001</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="27"/>
+      <c r="H37" s="30">
         <f>AVERAGE(C37:F37)</f>
         <v>11245.43275</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="40" t="s">
         <v>155</v>
       </c>
@@ -14281,12 +14283,13 @@
       <c r="F38" s="32">
         <v>268</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="32"/>
+      <c r="H38" s="30">
         <f>AVERAGE(C38:F38)</f>
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="40" t="s">
         <v>156</v>
       </c>
@@ -14309,12 +14312,13 @@
         <f>F$4*F40</f>
         <v>8551.1286</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="27"/>
+      <c r="H39" s="30">
         <f>AVERAGE(C39:F39)</f>
         <v>9130.3814999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="40" t="s">
         <v>157</v>
       </c>
@@ -14333,12 +14337,13 @@
       <c r="F40" s="32">
         <v>207</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="32"/>
+      <c r="H40" s="30">
         <f>AVERAGE(C40:F40)</f>
         <v>221.25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A41" s="40"/>
       <c r="B41" s="21" t="s">
         <v>42</v>
@@ -14347,9 +14352,10 @@
       <c r="D41" s="35"/>
       <c r="E41" s="34"/>
       <c r="F41" s="35"/>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G41" s="35"/>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A42" s="40" t="s">
         <v>120</v>
       </c>
@@ -14372,12 +14378,13 @@
         <f>F$4*F43</f>
         <v>8675.0580000000009</v>
       </c>
-      <c r="G42" s="30">
-        <f t="shared" ref="G42:G47" si="2">AVERAGE(C42:F42)</f>
+      <c r="G42" s="34"/>
+      <c r="H42" s="30">
+        <f t="shared" ref="H42:H47" si="2">AVERAGE(C42:F42)</f>
         <v>8954.9000999999989</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A43" s="40" t="s">
         <v>121</v>
       </c>
@@ -14396,12 +14403,13 @@
       <c r="F43" s="32">
         <v>210</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="32"/>
+      <c r="H43" s="30">
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A44" s="40" t="s">
         <v>122</v>
       </c>
@@ -14424,12 +14432,13 @@
         <f>F$4*F45</f>
         <v>8179.340400000001</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="34"/>
+      <c r="H44" s="30">
         <f t="shared" si="2"/>
         <v>8593.6897000000008</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A45" s="40" t="s">
         <v>123</v>
       </c>
@@ -14448,12 +14457,13 @@
       <c r="F45" s="32">
         <v>198</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="32"/>
+      <c r="H45" s="30">
         <f t="shared" si="2"/>
         <v>208.25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A46" s="40" t="s">
         <v>124</v>
       </c>
@@ -14476,12 +14486,13 @@
         <f>F$4*F47</f>
         <v>8055.411000000001</v>
       </c>
-      <c r="G46" s="30">
+      <c r="G46" s="34"/>
+      <c r="H46" s="30">
         <f t="shared" si="2"/>
         <v>8469.89005</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A47" s="40" t="s">
         <v>125</v>
       </c>
@@ -14500,12 +14511,13 @@
       <c r="F47" s="32">
         <v>195</v>
       </c>
-      <c r="G47" s="30">
+      <c r="G47" s="32"/>
+      <c r="H47" s="30">
         <f t="shared" si="2"/>
         <v>205.25</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A48" s="40"/>
       <c r="B48" s="22" t="s">
         <v>72</v>
@@ -14514,9 +14526,10 @@
       <c r="D48" s="35"/>
       <c r="E48" s="34"/>
       <c r="F48" s="35"/>
-      <c r="G48" s="30"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G48" s="35"/>
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="40" t="s">
         <v>158</v>
       </c>
@@ -14539,12 +14552,13 @@
         <f>F$4*F50</f>
         <v>12062.461600000001</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="27"/>
+      <c r="H49" s="30">
         <f>AVERAGE(C49:F49)</f>
         <v>12204.89365</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="40" t="s">
         <v>159</v>
       </c>
@@ -14563,12 +14577,13 @@
       <c r="F50" s="32">
         <v>292</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G50" s="32"/>
+      <c r="H50" s="30">
         <f>AVERAGE(C50:F50)</f>
         <v>295.75</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="40" t="s">
         <v>160</v>
       </c>
@@ -14591,12 +14606,13 @@
         <f>F$4*F52</f>
         <v>0</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="27"/>
+      <c r="H51" s="30">
         <f>AVERAGE(C51:F51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="40" t="s">
         <v>161</v>
       </c>
@@ -14615,12 +14631,13 @@
       <c r="F52" s="32">
         <v>0</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="32"/>
+      <c r="H52" s="30">
         <f>AVERAGE(C52:F52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A53" s="40"/>
       <c r="B53" s="21" t="s">
         <v>49</v>
@@ -14629,9 +14646,10 @@
       <c r="D53" s="35"/>
       <c r="E53" s="34"/>
       <c r="F53" s="35"/>
-      <c r="G53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G53" s="35"/>
+      <c r="H53" s="30"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="40" t="s">
         <v>126</v>
       </c>
@@ -14654,12 +14672,13 @@
         <f>F$4*F55</f>
         <v>9377.3245999999999</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="27"/>
+      <c r="H54" s="30">
         <f>AVERAGE(C54:F54)</f>
         <v>9759.6052</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="40" t="s">
         <v>127</v>
       </c>
@@ -14678,12 +14697,13 @@
       <c r="F55" s="32">
         <v>227</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="32"/>
+      <c r="H55" s="30">
         <f>AVERAGE(C55:F55)</f>
         <v>236.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A56" s="40"/>
       <c r="B56" s="21" t="s">
         <v>51</v>
@@ -14692,9 +14712,10 @@
       <c r="D56" s="35"/>
       <c r="E56" s="34"/>
       <c r="F56" s="35"/>
-      <c r="G56" s="30"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G56" s="35"/>
+      <c r="H56" s="30"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="40" t="s">
         <v>128</v>
       </c>
@@ -14717,12 +14738,13 @@
         <f>F$4*F58</f>
         <v>9749.1128000000008</v>
       </c>
-      <c r="G57" s="30">
-        <f t="shared" ref="G57:G66" si="3">AVERAGE(C57:F57)</f>
+      <c r="G57" s="27"/>
+      <c r="H57" s="30">
+        <f t="shared" ref="H57:H66" si="3">AVERAGE(C57:F57)</f>
         <v>9728.6712000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="40" t="s">
         <v>129</v>
       </c>
@@ -14741,12 +14763,13 @@
       <c r="F58" s="32">
         <v>236</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G58" s="32"/>
+      <c r="H58" s="30">
         <f t="shared" si="3"/>
         <v>235.75</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="40" t="s">
         <v>130</v>
       </c>
@@ -14769,12 +14792,13 @@
         <f>F$4*F60</f>
         <v>9459.9441999999999</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="27"/>
+      <c r="H59" s="30">
         <f t="shared" si="3"/>
         <v>9460.5126499999988</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="40" t="s">
         <v>131</v>
       </c>
@@ -14793,12 +14817,13 @@
       <c r="F60" s="32">
         <v>229</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="32"/>
+      <c r="H60" s="30">
         <f t="shared" si="3"/>
         <v>229.25</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="40" t="s">
         <v>132</v>
       </c>
@@ -14821,12 +14846,13 @@
         <f>F$4*F62</f>
         <v>9377.3245999999999</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="27"/>
+      <c r="H61" s="30">
         <f t="shared" si="3"/>
         <v>9295.2721999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="40" t="s">
         <v>133</v>
       </c>
@@ -14845,12 +14871,13 @@
       <c r="F62" s="32">
         <v>227</v>
       </c>
-      <c r="G62" s="30">
+      <c r="G62" s="32"/>
+      <c r="H62" s="30">
         <f t="shared" si="3"/>
         <v>225.25</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="40" t="s">
         <v>134</v>
       </c>
@@ -14873,12 +14900,13 @@
         <f>F$4*F64</f>
         <v>0</v>
       </c>
-      <c r="G63" s="30">
+      <c r="G63" s="27"/>
+      <c r="H63" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="40" t="s">
         <v>135</v>
       </c>
@@ -14897,12 +14925,13 @@
       <c r="F64" s="27">
         <v>0</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G64" s="27"/>
+      <c r="H64" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="40" t="s">
         <v>136</v>
       </c>
@@ -14925,12 +14954,13 @@
         <f>F$4*F66</f>
         <v>9253.3952000000008</v>
       </c>
-      <c r="G65" s="30">
+      <c r="G65" s="27"/>
+      <c r="H65" s="30">
         <f t="shared" si="3"/>
         <v>9233.4725999999991</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="40" t="s">
         <v>137</v>
       </c>
@@ -14949,12 +14979,13 @@
       <c r="F66" s="32">
         <v>224</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G66" s="32"/>
+      <c r="H66" s="30">
         <f t="shared" si="3"/>
         <v>223.75</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A67" s="40"/>
       <c r="B67" s="21" t="s">
         <v>57</v>
@@ -14963,9 +14994,10 @@
       <c r="D67" s="35"/>
       <c r="E67" s="34"/>
       <c r="F67" s="35"/>
-      <c r="G67" s="30"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G67" s="35"/>
+      <c r="H67" s="30"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="40" t="s">
         <v>138</v>
       </c>
@@ -14988,12 +15020,13 @@
         <f>F$4*F69</f>
         <v>7890.1718000000001</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="27"/>
+      <c r="H68" s="30">
         <f>AVERAGE(C68:F68)</f>
         <v>8139.8239999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="40" t="s">
         <v>139</v>
       </c>
@@ -15012,12 +15045,13 @@
       <c r="F69" s="27">
         <v>191</v>
       </c>
-      <c r="G69" s="30">
+      <c r="G69" s="27"/>
+      <c r="H69" s="30">
         <f>AVERAGE(C69:F69)</f>
         <v>197.25</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A70" s="40"/>
       <c r="B70" s="12" t="s">
         <v>59</v>
@@ -15026,9 +15060,10 @@
       <c r="D70" s="38"/>
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
-      <c r="G70" s="30"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G70" s="38"/>
+      <c r="H70" s="30"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="40" t="s">
         <v>140</v>
       </c>
@@ -15051,12 +15086,13 @@
         <f>F$4*F72</f>
         <v>10079.591200000001</v>
       </c>
-      <c r="G71" s="30">
-        <f t="shared" ref="G71:G82" si="4">AVERAGE(C71:F71)</f>
+      <c r="G71" s="27"/>
+      <c r="H71" s="30">
+        <f t="shared" ref="H71:H82" si="4">AVERAGE(C71:F71)</f>
         <v>10451.047050000001</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="40" t="s">
         <v>141</v>
       </c>
@@ -15075,12 +15111,13 @@
       <c r="F72" s="27">
         <v>244</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G72" s="27"/>
+      <c r="H72" s="30">
         <f t="shared" si="4"/>
         <v>253.25</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="40" t="s">
         <v>142</v>
       </c>
@@ -15103,12 +15140,13 @@
         <f>F$4*F74</f>
         <v>9955.6617999999999</v>
       </c>
-      <c r="G73" s="30">
+      <c r="G73" s="27"/>
+      <c r="H73" s="30">
         <f t="shared" si="4"/>
         <v>10296.2125</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="40" t="s">
         <v>143</v>
       </c>
@@ -15127,12 +15165,13 @@
       <c r="F74" s="27">
         <v>241</v>
       </c>
-      <c r="G74" s="30">
+      <c r="G74" s="27"/>
+      <c r="H74" s="30">
         <f t="shared" si="4"/>
         <v>249.5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="40" t="s">
         <v>144</v>
       </c>
@@ -15155,12 +15194,13 @@
         <f>F$4*F76</f>
         <v>9873.0421999999999</v>
       </c>
-      <c r="G75" s="30">
+      <c r="G75" s="27"/>
+      <c r="H75" s="30">
         <f t="shared" si="4"/>
         <v>10151.728650000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="40" t="s">
         <v>145</v>
       </c>
@@ -15179,12 +15219,13 @@
       <c r="F76" s="27">
         <v>239</v>
       </c>
-      <c r="G76" s="30">
+      <c r="G76" s="27"/>
+      <c r="H76" s="30">
         <f t="shared" si="4"/>
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="40" t="s">
         <v>146</v>
       </c>
@@ -15207,12 +15248,13 @@
         <f>F$4*F78</f>
         <v>9749.1128000000008</v>
       </c>
-      <c r="G77" s="30">
+      <c r="G77" s="27"/>
+      <c r="H77" s="30">
         <f t="shared" si="4"/>
         <v>10048.563750000001</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="40" t="s">
         <v>147</v>
       </c>
@@ -15231,12 +15273,13 @@
       <c r="F78" s="27">
         <v>236</v>
       </c>
-      <c r="G78" s="30">
+      <c r="G78" s="27"/>
+      <c r="H78" s="30">
         <f t="shared" si="4"/>
         <v>243.5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="40" t="s">
         <v>148</v>
       </c>
@@ -15259,12 +15302,13 @@
         <f>F$4*F80</f>
         <v>9666.4932000000008</v>
       </c>
-      <c r="G79" s="30">
+      <c r="G79" s="27"/>
+      <c r="H79" s="30">
         <f t="shared" si="4"/>
         <v>9924.6886000000013</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="40" t="s">
         <v>149</v>
       </c>
@@ -15283,12 +15327,13 @@
       <c r="F80" s="27">
         <v>234</v>
       </c>
-      <c r="G80" s="30">
+      <c r="G80" s="27"/>
+      <c r="H80" s="30">
         <f t="shared" si="4"/>
         <v>240.5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="40" t="s">
         <v>150</v>
       </c>
@@ -15311,12 +15356,13 @@
         <f>F$4*F82</f>
         <v>0</v>
       </c>
-      <c r="G81" s="30">
+      <c r="G81" s="27"/>
+      <c r="H81" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="40" t="s">
         <v>151</v>
       </c>
@@ -15335,12 +15381,13 @@
       <c r="F82" s="32">
         <v>0</v>
       </c>
-      <c r="G82" s="30">
+      <c r="G82" s="32"/>
+      <c r="H82" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A83" s="40"/>
       <c r="B83" s="21" t="s">
         <v>66</v>
@@ -15349,9 +15396,10 @@
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
       <c r="F83" s="27"/>
-      <c r="G83" s="30"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G83" s="27"/>
+      <c r="H83" s="30"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="40" t="s">
         <v>152</v>
       </c>
@@ -15374,12 +15422,13 @@
         <f>F$4*F85</f>
         <v>8179.340400000001</v>
       </c>
-      <c r="G84" s="30">
+      <c r="G84" s="27"/>
+      <c r="H84" s="30">
         <f>AVERAGE(C84:F84)</f>
         <v>8305.1539000000012</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="40" t="s">
         <v>153</v>
       </c>
@@ -15398,12 +15447,13 @@
       <c r="F85" s="32">
         <v>198</v>
       </c>
-      <c r="G85" s="30">
+      <c r="G85" s="32"/>
+      <c r="H85" s="30">
         <f>AVERAGE(C85:F85)</f>
         <v>201.25</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.6">
       <c r="B86" s="21" t="s">
         <v>68</v>
       </c>
@@ -15411,9 +15461,10 @@
       <c r="D86" s="35"/>
       <c r="E86" s="34"/>
       <c r="F86" s="35"/>
-      <c r="G86" s="30"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="G86" s="35"/>
+      <c r="H86" s="30"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.6">
       <c r="B87" s="8" t="s">
         <v>68</v>
       </c>
@@ -15433,12 +15484,13 @@
         <f>F$4*F88</f>
         <v>4833.2466000000004</v>
       </c>
-      <c r="G87" s="30">
+      <c r="G87" s="27"/>
+      <c r="H87" s="30">
         <f>AVERAGE(C87:F87)</f>
         <v>4786.8210500000005</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.6">
       <c r="B88" s="13" t="s">
         <v>71</v>
       </c>
@@ -15454,18 +15506,20 @@
       <c r="F88" s="32">
         <v>117</v>
       </c>
-      <c r="G88" s="30">
+      <c r="G88" s="32"/>
+      <c r="H88" s="30">
         <f>AVERAGE(C88:F88)</f>
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.6">
       <c r="B89" s="13"/>
       <c r="C89" s="31"/>
       <c r="D89" s="32"/>
       <c r="E89" s="31"/>
       <c r="F89" s="32"/>
-      <c r="G89" s="30"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -15476,11 +15530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -17864,10 +17918,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -20241,11 +20295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -22599,11 +22653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -24774,7 +24828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26948,10 +27002,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -29347,10 +29401,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -31464,11 +31518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -33820,10 +33874,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -36157,7 +36211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38338,7 +38392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
